--- a/excel/05_returns_portfolios.xlsx
+++ b/excel/05_returns_portfolios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27304"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\busi448\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\busi448\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C0958D-80A6-4453-A2F4-81A4383D8068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32CC6E0-26E5-4D09-AACA-2AAB43899454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{1486279D-C209-4006-963D-B75A364BB11D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{1486279D-C209-4006-963D-B75A364BB11D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Expected Return</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t>Portfolio Std Deviation</t>
+  </si>
+  <si>
+    <t>Bordered Covariance Method of Calculating Portfolio Variance</t>
+  </si>
+  <si>
+    <t>Wgts</t>
   </si>
 </sst>
 </file>
@@ -67,8 +73,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -197,26 +203,26 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,16 +557,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3119A65A-9B36-4363-B5B6-985D0E5330CD}">
-  <dimension ref="B1:G19"/>
+  <dimension ref="B1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C1" s="1">
         <v>1</v>
       </c>
@@ -571,7 +579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -585,7 +593,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -599,7 +607,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -613,7 +621,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -627,7 +635,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C7" s="18">
         <v>0.3</v>
       </c>
@@ -638,7 +646,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C8" s="21">
         <v>0.3</v>
       </c>
@@ -649,12 +657,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="24" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>1</v>
       </c>
@@ -665,7 +673,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1</v>
       </c>
@@ -690,7 +698,7 @@
         <v>{=TRANSPOSE(C3:E3)}</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
@@ -710,7 +718,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>3</v>
       </c>
@@ -730,13 +738,13 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C15" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C14)</f>
         <v>=C$3*$F14*C8</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>2</v>
       </c>
@@ -749,7 +757,7 @@
         <v>=SUMPRODUCT(C2:E2,C4:E4)</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>3</v>
       </c>
@@ -762,7 +770,7 @@
         <v>{=MMULT(C4:E4,MMULT(C12:E14,TRANSPOSE(C4:E4)))}</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>7</v>
       </c>
@@ -773,6 +781,98 @@
       <c r="D19" t="str">
         <f ca="1">_xlfn.FORMULATEXT(C19)</f>
         <v>=SQRT(C18)</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="5">
+        <f>C12*$F23*C$26</f>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" ref="D23:E23" si="3">D12*$F23*D$26</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="E23" s="7">
+        <f t="shared" si="3"/>
+        <v>5.6249999999999996E-4</v>
+      </c>
+      <c r="F23">
+        <f t="array" ref="F23:F25">TRANSPOSE(C4:E4)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="8">
+        <f t="shared" ref="C24:E24" si="4">C13*$F24*C$26</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="4"/>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="4"/>
+        <v>6.7499999999999993E-4</v>
+      </c>
+      <c r="F24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="11">
+        <f t="shared" ref="C25:E25" si="5">C14*$F25*C$26</f>
+        <v>5.6249999999999996E-4</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="5"/>
+        <v>6.7499999999999993E-4</v>
+      </c>
+      <c r="E25" s="13">
+        <f t="shared" si="5"/>
+        <v>1.4062499999999999E-3</v>
+      </c>
+      <c r="F25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="24">
+        <f>C4</f>
+        <v>0.25</v>
+      </c>
+      <c r="D26" s="24">
+        <f t="shared" ref="D26:E26" si="6">D4</f>
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="24">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="14">
+        <f>SUM(C23:E25)</f>
+        <v>1.178125E-2</v>
+      </c>
+      <c r="D28" t="str">
+        <f ca="1">_xlfn.FORMULATEXT(C28)</f>
+        <v>=SUM(C23:E25)</v>
       </c>
     </row>
   </sheetData>
